--- a/GATEWAY/S1#111#KOGNITIVASRLXX/Kognitiva/MEDGEST/5.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111#KOGNITIVASRLXX/Kognitiva/MEDGEST/5.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/604b941ccb058d18/Desktop/File offline My Cloud/MyCloud/CLIENTI/Palara - BBerry/Kognitiva/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{943B6471-EDE1-457E-BE4A-EFF448EE70A0}"/>
+  <xr:revisionPtr revIDLastSave="432" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C18B21A-A215-4E6D-95E7-98E1C54894E3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="562">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1721,12 +1721,6 @@
     <t>2.16.840.1.113883.2.9.2.60.4.4.a04f79fd8c838a8aa6875363aacd9a95a09d8ffd567c841dd9d3df1010f36812.30b3f67b8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>"Si è verificato un errore nel contattare il gateway. L'errore sarà comunicato all'operatore di backoffice."</t>
-  </si>
-  <si>
-    <t>L’applicativo mantiene I dati. Errore gestito dall'operatore di backoffice. L’utente potrà effetuare la validazione dopo.</t>
-  </si>
-  <si>
     <t>616f7b8e7967d940</t>
   </si>
   <si>
@@ -1803,9 +1797,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.60.4.4.f289ece7e599dbe41a409b655f6546b0c9da85bb0134602704f0a00eb9641ded.150fec56ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-10 15:43:27</t>
   </si>
   <si>
     <t>61992ee179c30e30</t>
@@ -2235,7 +2226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2257,6 +2248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2608,7 +2605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2743,9 +2740,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2768,10 +2762,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4224,10 +4218,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S189" sqref="S30:S189"/>
+      <selection pane="bottomRight" activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4243,8 +4237,9 @@
     <col min="11" max="11" width="36.44140625" customWidth="1"/>
     <col min="12" max="12" width="43.33203125" customWidth="1"/>
     <col min="13" max="14" width="36.44140625" customWidth="1"/>
-    <col min="15" max="15" width="50.21875" customWidth="1"/>
-    <col min="16" max="18" width="36.44140625" customWidth="1"/>
+    <col min="15" max="15" width="81.21875" customWidth="1"/>
+    <col min="16" max="17" width="36.44140625" customWidth="1"/>
+    <col min="18" max="18" width="62.109375" customWidth="1"/>
     <col min="19" max="19" width="27.21875" customWidth="1"/>
     <col min="20" max="20" width="33.21875" customWidth="1"/>
     <col min="21" max="21" width="36.44140625" customWidth="1"/>
@@ -4274,14 +4269,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
         <v>434</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="53"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4302,14 +4297,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="61" t="s">
         <v>435</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="53"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4330,12 +4325,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="62" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61" t="s">
         <v>436</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4357,12 +4352,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="53"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4383,8 +4378,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5242,7 +5237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="12.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="31">
         <v>46</v>
       </c>
@@ -5309,11 +5304,11 @@
       <c r="M30" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="N30" s="63" t="s">
+      <c r="N30" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O30" s="63" t="s">
-        <v>563</v>
+      <c r="O30" s="29" t="s">
+        <v>560</v>
       </c>
       <c r="P30" s="29" t="s">
         <v>234</v>
@@ -5322,10 +5317,10 @@
         <v>66</v>
       </c>
       <c r="R30" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="S30" s="63" t="s">
-        <v>564</v>
+        <v>234</v>
+      </c>
+      <c r="S30" s="29" t="s">
+        <v>561</v>
       </c>
       <c r="T30" s="29"/>
       <c r="U30" s="34" t="s">
@@ -5364,11 +5359,11 @@
       <c r="M31" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="N31" s="63" t="s">
+      <c r="N31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O31" s="63" t="s">
-        <v>563</v>
+      <c r="O31" s="29" t="s">
+        <v>560</v>
       </c>
       <c r="P31" s="29" t="s">
         <v>234</v>
@@ -5377,10 +5372,10 @@
         <v>66</v>
       </c>
       <c r="R31" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="S31" s="63" t="s">
-        <v>564</v>
+        <v>234</v>
+      </c>
+      <c r="S31" s="29" t="s">
+        <v>561</v>
       </c>
       <c r="T31" s="29"/>
       <c r="U31" s="34" t="s">
@@ -5416,15 +5411,11 @@
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
-      <c r="O32" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O32" s="63"/>
       <c r="P32" s="29"/>
       <c r="Q32" s="29"/>
       <c r="R32" s="29"/>
-      <c r="S32" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S32" s="62"/>
       <c r="T32" s="29"/>
       <c r="U32" s="34" t="s">
         <v>66</v>
@@ -5459,15 +5450,11 @@
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
-      <c r="O33" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O33" s="63"/>
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
       <c r="R33" s="29"/>
-      <c r="S33" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S33" s="62"/>
       <c r="T33" s="29"/>
       <c r="U33" s="34" t="s">
         <v>66</v>
@@ -5502,15 +5489,11 @@
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
       <c r="N34" s="29"/>
-      <c r="O34" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O34" s="63"/>
       <c r="P34" s="29"/>
       <c r="Q34" s="29"/>
       <c r="R34" s="29"/>
-      <c r="S34" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S34" s="62"/>
       <c r="T34" s="29"/>
       <c r="U34" s="34" t="s">
         <v>66</v>
@@ -5545,15 +5528,11 @@
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
       <c r="N35" s="29"/>
-      <c r="O35" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O35" s="63"/>
       <c r="P35" s="29"/>
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
-      <c r="S35" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S35" s="62"/>
       <c r="T35" s="29"/>
       <c r="U35" s="34"/>
       <c r="V35" s="35"/>
@@ -5586,15 +5565,11 @@
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
       <c r="N36" s="29"/>
-      <c r="O36" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O36" s="63"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
-      <c r="S36" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S36" s="62"/>
       <c r="T36" s="29"/>
       <c r="U36" s="34"/>
       <c r="V36" s="35"/>
@@ -5627,15 +5602,11 @@
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
-      <c r="O37" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O37" s="63"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="29"/>
-      <c r="S37" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S37" s="62"/>
       <c r="T37" s="29"/>
       <c r="U37" s="34"/>
       <c r="V37" s="35"/>
@@ -5668,15 +5639,11 @@
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
-      <c r="O38" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O38" s="63"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
       <c r="R38" s="29"/>
-      <c r="S38" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S38" s="62"/>
       <c r="T38" s="29"/>
       <c r="U38" s="34"/>
       <c r="V38" s="35"/>
@@ -5709,15 +5676,11 @@
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
-      <c r="O39" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O39" s="63"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
       <c r="R39" s="29"/>
-      <c r="S39" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S39" s="62"/>
       <c r="T39" s="29"/>
       <c r="U39" s="34"/>
       <c r="V39" s="35"/>
@@ -5750,15 +5713,11 @@
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
-      <c r="O40" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O40" s="63"/>
       <c r="P40" s="29"/>
       <c r="Q40" s="29"/>
       <c r="R40" s="29"/>
-      <c r="S40" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S40" s="62"/>
       <c r="T40" s="29"/>
       <c r="U40" s="34"/>
       <c r="V40" s="35"/>
@@ -5791,15 +5750,11 @@
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
-      <c r="O41" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O41" s="63"/>
       <c r="P41" s="29"/>
       <c r="Q41" s="29"/>
       <c r="R41" s="29"/>
-      <c r="S41" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S41" s="62"/>
       <c r="T41" s="29"/>
       <c r="U41" s="34"/>
       <c r="V41" s="35"/>
@@ -5832,15 +5787,11 @@
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
-      <c r="O42" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O42" s="63"/>
       <c r="P42" s="29"/>
       <c r="Q42" s="29"/>
       <c r="R42" s="29"/>
-      <c r="S42" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S42" s="62"/>
       <c r="T42" s="29"/>
       <c r="U42" s="34"/>
       <c r="V42" s="35"/>
@@ -5873,15 +5824,11 @@
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
-      <c r="O43" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O43" s="63"/>
       <c r="P43" s="29"/>
       <c r="Q43" s="29"/>
       <c r="R43" s="29"/>
-      <c r="S43" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S43" s="62"/>
       <c r="T43" s="29"/>
       <c r="U43" s="34"/>
       <c r="V43" s="35"/>
@@ -5914,15 +5861,11 @@
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
       <c r="N44" s="29"/>
-      <c r="O44" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O44" s="63"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
-      <c r="S44" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S44" s="62"/>
       <c r="T44" s="29"/>
       <c r="U44" s="34"/>
       <c r="V44" s="35"/>
@@ -5955,15 +5898,11 @@
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
-      <c r="O45" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O45" s="63"/>
       <c r="P45" s="29"/>
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
-      <c r="S45" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S45" s="62"/>
       <c r="T45" s="29"/>
       <c r="U45" s="34"/>
       <c r="V45" s="35"/>
@@ -5996,15 +5935,11 @@
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
       <c r="N46" s="29"/>
-      <c r="O46" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O46" s="63"/>
       <c r="P46" s="29"/>
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
-      <c r="S46" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S46" s="62"/>
       <c r="T46" s="29"/>
       <c r="U46" s="34"/>
       <c r="V46" s="35"/>
@@ -6037,15 +5972,11 @@
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
       <c r="N47" s="29"/>
-      <c r="O47" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O47" s="63"/>
       <c r="P47" s="29"/>
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
-      <c r="S47" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S47" s="62"/>
       <c r="T47" s="29"/>
       <c r="U47" s="34"/>
       <c r="V47" s="35"/>
@@ -6078,15 +6009,11 @@
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
-      <c r="O48" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O48" s="63"/>
       <c r="P48" s="29"/>
       <c r="Q48" s="29"/>
       <c r="R48" s="29"/>
-      <c r="S48" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S48" s="62"/>
       <c r="T48" s="29"/>
       <c r="U48" s="34"/>
       <c r="V48" s="35"/>
@@ -6119,15 +6046,11 @@
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
       <c r="N49" s="29"/>
-      <c r="O49" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O49" s="63"/>
       <c r="P49" s="29"/>
       <c r="Q49" s="29"/>
       <c r="R49" s="29"/>
-      <c r="S49" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S49" s="62"/>
       <c r="T49" s="29"/>
       <c r="U49" s="34"/>
       <c r="V49" s="35"/>
@@ -6160,15 +6083,11 @@
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
       <c r="N50" s="29"/>
-      <c r="O50" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O50" s="63"/>
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
       <c r="R50" s="29"/>
-      <c r="S50" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S50" s="62"/>
       <c r="T50" s="29"/>
       <c r="U50" s="34"/>
       <c r="V50" s="35"/>
@@ -6201,15 +6120,11 @@
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
-      <c r="O51" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O51" s="63"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
       <c r="R51" s="29"/>
-      <c r="S51" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S51" s="62"/>
       <c r="T51" s="29"/>
       <c r="U51" s="34"/>
       <c r="V51" s="35"/>
@@ -6242,15 +6157,11 @@
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
-      <c r="O52" s="49" t="s">
-        <v>519</v>
-      </c>
+      <c r="O52" s="63"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
       <c r="R52" s="29"/>
-      <c r="S52" s="50" t="s">
-        <v>521</v>
-      </c>
+      <c r="S52" s="62"/>
       <c r="T52" s="29"/>
       <c r="U52" s="34"/>
       <c r="V52" s="35"/>
@@ -6278,13 +6189,13 @@
         <v>45728</v>
       </c>
       <c r="G53" s="45" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="J53" s="29" t="s">
         <v>66</v>
@@ -6297,8 +6208,8 @@
       <c r="N53" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O53" s="63" t="s">
-        <v>519</v>
+      <c r="O53" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P53" s="29" t="s">
         <v>66</v>
@@ -6309,8 +6220,8 @@
       <c r="R53" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S53" s="64" t="s">
-        <v>521</v>
+      <c r="S53" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T53" s="29"/>
       <c r="U53" s="34"/>
@@ -6339,13 +6250,13 @@
         <v>45728</v>
       </c>
       <c r="G54" s="45" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J54" s="29" t="s">
         <v>66</v>
@@ -6358,8 +6269,8 @@
       <c r="N54" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O54" s="63" t="s">
-        <v>519</v>
+      <c r="O54" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P54" s="29" t="s">
         <v>66</v>
@@ -6370,8 +6281,8 @@
       <c r="R54" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S54" s="64" t="s">
-        <v>521</v>
+      <c r="S54" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T54" s="29"/>
       <c r="U54" s="34"/>
@@ -6400,13 +6311,13 @@
         <v>45728</v>
       </c>
       <c r="G55" s="45" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>66</v>
@@ -6419,8 +6330,8 @@
       <c r="N55" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O55" s="63" t="s">
-        <v>519</v>
+      <c r="O55" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P55" s="29" t="s">
         <v>66</v>
@@ -6431,8 +6342,8 @@
       <c r="R55" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S55" s="64" t="s">
-        <v>521</v>
+      <c r="S55" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T55" s="29"/>
       <c r="U55" s="34"/>
@@ -6461,13 +6372,13 @@
         <v>45728</v>
       </c>
       <c r="G56" s="45" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I56" s="39" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J56" s="29" t="s">
         <v>66</v>
@@ -6480,8 +6391,8 @@
       <c r="N56" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O56" s="63" t="s">
-        <v>519</v>
+      <c r="O56" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P56" s="29" t="s">
         <v>66</v>
@@ -6492,8 +6403,8 @@
       <c r="R56" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S56" s="64" t="s">
-        <v>521</v>
+      <c r="S56" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T56" s="29"/>
       <c r="U56" s="34"/>
@@ -6522,13 +6433,13 @@
         <v>45728</v>
       </c>
       <c r="G57" s="45" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J57" s="29" t="s">
         <v>66</v>
@@ -6541,8 +6452,8 @@
       <c r="N57" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O57" s="63" t="s">
-        <v>519</v>
+      <c r="O57" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P57" s="29" t="s">
         <v>66</v>
@@ -6553,8 +6464,8 @@
       <c r="R57" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S57" s="64" t="s">
-        <v>521</v>
+      <c r="S57" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T57" s="29"/>
       <c r="U57" s="34"/>
@@ -6583,13 +6494,13 @@
         <v>45728</v>
       </c>
       <c r="G58" s="45" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I58" s="39" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J58" s="29" t="s">
         <v>66</v>
@@ -6602,8 +6513,8 @@
       <c r="N58" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O58" s="63" t="s">
-        <v>519</v>
+      <c r="O58" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P58" s="29" t="s">
         <v>66</v>
@@ -6614,8 +6525,8 @@
       <c r="R58" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S58" s="64" t="s">
-        <v>521</v>
+      <c r="S58" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T58" s="29"/>
       <c r="U58" s="34"/>
@@ -6644,13 +6555,13 @@
         <v>45728</v>
       </c>
       <c r="G59" s="45" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J59" s="29" t="s">
         <v>66</v>
@@ -6663,8 +6574,8 @@
       <c r="N59" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O59" s="63" t="s">
-        <v>519</v>
+      <c r="O59" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P59" s="29" t="s">
         <v>66</v>
@@ -6675,8 +6586,8 @@
       <c r="R59" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S59" s="64" t="s">
-        <v>521</v>
+      <c r="S59" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T59" s="29"/>
       <c r="U59" s="34"/>
@@ -6705,13 +6616,13 @@
         <v>45728</v>
       </c>
       <c r="G60" s="45" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I60" s="39" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J60" s="29" t="s">
         <v>66</v>
@@ -6724,8 +6635,8 @@
       <c r="N60" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O60" s="63" t="s">
-        <v>519</v>
+      <c r="O60" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P60" s="29" t="s">
         <v>66</v>
@@ -6736,8 +6647,8 @@
       <c r="R60" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S60" s="64" t="s">
-        <v>521</v>
+      <c r="S60" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T60" s="29"/>
       <c r="U60" s="34"/>
@@ -6766,13 +6677,13 @@
         <v>45728</v>
       </c>
       <c r="G61" s="45" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="J61" s="29" t="s">
         <v>66</v>
@@ -6785,8 +6696,8 @@
       <c r="N61" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O61" s="63" t="s">
-        <v>519</v>
+      <c r="O61" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P61" s="29" t="s">
         <v>66</v>
@@ -6797,8 +6708,8 @@
       <c r="R61" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S61" s="64" t="s">
-        <v>521</v>
+      <c r="S61" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T61" s="29"/>
       <c r="U61" s="34"/>
@@ -6827,13 +6738,13 @@
         <v>45728</v>
       </c>
       <c r="G62" s="45" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="I62" s="39" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J62" s="29" t="s">
         <v>66</v>
@@ -6846,8 +6757,8 @@
       <c r="N62" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O62" s="63" t="s">
-        <v>519</v>
+      <c r="O62" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P62" s="29" t="s">
         <v>66</v>
@@ -6858,8 +6769,8 @@
       <c r="R62" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S62" s="64" t="s">
-        <v>521</v>
+      <c r="S62" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T62" s="29"/>
       <c r="U62" s="34"/>
@@ -6888,13 +6799,13 @@
         <v>45728</v>
       </c>
       <c r="G63" s="45" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I63" s="39" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J63" s="29" t="s">
         <v>66</v>
@@ -6907,8 +6818,8 @@
       <c r="N63" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O63" s="63" t="s">
-        <v>519</v>
+      <c r="O63" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P63" s="29" t="s">
         <v>66</v>
@@ -6919,8 +6830,8 @@
       <c r="R63" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S63" s="64" t="s">
-        <v>521</v>
+      <c r="S63" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T63" s="29"/>
       <c r="U63" s="34"/>
@@ -6949,13 +6860,13 @@
         <v>45728</v>
       </c>
       <c r="G64" s="45" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I64" s="39" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J64" s="29" t="s">
         <v>66</v>
@@ -6968,8 +6879,8 @@
       <c r="N64" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O64" s="63" t="s">
-        <v>519</v>
+      <c r="O64" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P64" s="29" t="s">
         <v>66</v>
@@ -6980,8 +6891,8 @@
       <c r="R64" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S64" s="64" t="s">
-        <v>521</v>
+      <c r="S64" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T64" s="29"/>
       <c r="U64" s="34"/>
@@ -7010,13 +6921,13 @@
         <v>45728</v>
       </c>
       <c r="G65" s="45" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="I65" s="39" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J65" s="29" t="s">
         <v>66</v>
@@ -7029,8 +6940,8 @@
       <c r="N65" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O65" s="63" t="s">
-        <v>519</v>
+      <c r="O65" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P65" s="29" t="s">
         <v>66</v>
@@ -7041,8 +6952,8 @@
       <c r="R65" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S65" s="64" t="s">
-        <v>521</v>
+      <c r="S65" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T65" s="29"/>
       <c r="U65" s="34"/>
@@ -7071,13 +6982,13 @@
         <v>45728</v>
       </c>
       <c r="G66" s="45" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>66</v>
@@ -7090,8 +7001,8 @@
       <c r="N66" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O66" s="63" t="s">
-        <v>519</v>
+      <c r="O66" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P66" s="29" t="s">
         <v>66</v>
@@ -7102,8 +7013,8 @@
       <c r="R66" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S66" s="64" t="s">
-        <v>521</v>
+      <c r="S66" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T66" s="29"/>
       <c r="U66" s="34"/>
@@ -7132,13 +7043,13 @@
         <v>45728</v>
       </c>
       <c r="G67" s="45" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J67" s="29" t="s">
         <v>66</v>
@@ -7151,8 +7062,8 @@
       <c r="N67" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O67" s="63" t="s">
-        <v>519</v>
+      <c r="O67" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P67" s="29" t="s">
         <v>66</v>
@@ -7163,8 +7074,8 @@
       <c r="R67" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S67" s="64" t="s">
-        <v>521</v>
+      <c r="S67" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T67" s="29"/>
       <c r="U67" s="34"/>
@@ -7193,13 +7104,13 @@
         <v>45728</v>
       </c>
       <c r="G68" s="45" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I68" s="39" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J68" s="29" t="s">
         <v>66</v>
@@ -7212,8 +7123,8 @@
       <c r="N68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O68" s="63" t="s">
-        <v>519</v>
+      <c r="O68" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P68" s="29" t="s">
         <v>66</v>
@@ -7224,8 +7135,8 @@
       <c r="R68" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S68" s="64" t="s">
-        <v>521</v>
+      <c r="S68" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T68" s="29"/>
       <c r="U68" s="34"/>
@@ -7254,13 +7165,13 @@
         <v>45728</v>
       </c>
       <c r="G69" s="45" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J69" s="29" t="s">
         <v>66</v>
@@ -7273,8 +7184,8 @@
       <c r="N69" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O69" s="63" t="s">
-        <v>519</v>
+      <c r="O69" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P69" s="29" t="s">
         <v>66</v>
@@ -7285,8 +7196,8 @@
       <c r="R69" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S69" s="64" t="s">
-        <v>521</v>
+      <c r="S69" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T69" s="29"/>
       <c r="U69" s="34"/>
@@ -9054,7 +8965,7 @@
         <v>45726</v>
       </c>
       <c r="G117" s="45" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H117" s="33" t="s">
         <v>438</v>
@@ -9073,8 +8984,8 @@
       <c r="N117" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O117" s="63" t="s">
-        <v>519</v>
+      <c r="O117" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P117" s="29" t="s">
         <v>66</v>
@@ -9085,8 +8996,8 @@
       <c r="R117" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S117" s="64" t="s">
-        <v>521</v>
+      <c r="S117" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T117" s="29"/>
       <c r="U117" s="34"/>
@@ -9115,13 +9026,13 @@
         <v>45726</v>
       </c>
       <c r="G118" s="45" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H118" s="33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I118" s="39" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="J118" s="29" t="s">
         <v>66</v>
@@ -9134,8 +9045,8 @@
       <c r="N118" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O118" s="63" t="s">
-        <v>519</v>
+      <c r="O118" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P118" s="29" t="s">
         <v>66</v>
@@ -9146,8 +9057,8 @@
       <c r="R118" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S118" s="64" t="s">
-        <v>521</v>
+      <c r="S118" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T118" s="29"/>
       <c r="U118" s="34"/>
@@ -9176,13 +9087,13 @@
         <v>45726</v>
       </c>
       <c r="G119" s="45" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H119" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I119" s="39" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="J119" s="29" t="s">
         <v>66</v>
@@ -9195,8 +9106,8 @@
       <c r="N119" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O119" s="63" t="s">
-        <v>519</v>
+      <c r="O119" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P119" s="29" t="s">
         <v>66</v>
@@ -9207,8 +9118,8 @@
       <c r="R119" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S119" s="64" t="s">
-        <v>521</v>
+      <c r="S119" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T119" s="29"/>
       <c r="U119" s="34"/>
@@ -9237,13 +9148,13 @@
         <v>45726</v>
       </c>
       <c r="G120" s="45" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H120" s="33" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I120" s="39" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J120" s="29" t="s">
         <v>66</v>
@@ -9256,8 +9167,8 @@
       <c r="N120" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O120" s="63" t="s">
-        <v>519</v>
+      <c r="O120" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P120" s="29" t="s">
         <v>66</v>
@@ -9268,8 +9179,8 @@
       <c r="R120" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S120" s="64" t="s">
-        <v>521</v>
+      <c r="S120" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T120" s="29"/>
       <c r="U120" s="34"/>
@@ -9298,13 +9209,13 @@
         <v>45726</v>
       </c>
       <c r="G121" s="45" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H121" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I121" s="39" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J121" s="29" t="s">
         <v>66</v>
@@ -9317,8 +9228,8 @@
       <c r="N121" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O121" s="63" t="s">
-        <v>519</v>
+      <c r="O121" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P121" s="29" t="s">
         <v>66</v>
@@ -9329,8 +9240,8 @@
       <c r="R121" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S121" s="64" t="s">
-        <v>521</v>
+      <c r="S121" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T121" s="29"/>
       <c r="U121" s="34"/>
@@ -9359,13 +9270,13 @@
         <v>45726</v>
       </c>
       <c r="G122" s="45" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H122" s="33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I122" s="39" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="J122" s="29" t="s">
         <v>66</v>
@@ -9378,8 +9289,8 @@
       <c r="N122" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O122" s="63" t="s">
-        <v>519</v>
+      <c r="O122" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P122" s="29" t="s">
         <v>66</v>
@@ -9390,8 +9301,8 @@
       <c r="R122" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S122" s="64" t="s">
-        <v>521</v>
+      <c r="S122" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T122" s="29"/>
       <c r="U122" s="34"/>
@@ -9420,13 +9331,13 @@
         <v>45726</v>
       </c>
       <c r="G123" s="45" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="H123" s="33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I123" s="39" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J123" s="29" t="s">
         <v>66</v>
@@ -9439,8 +9350,8 @@
       <c r="N123" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O123" s="63" t="s">
-        <v>519</v>
+      <c r="O123" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P123" s="29" t="s">
         <v>66</v>
@@ -9451,8 +9362,8 @@
       <c r="R123" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S123" s="64" t="s">
-        <v>521</v>
+      <c r="S123" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T123" s="29"/>
       <c r="U123" s="34"/>
@@ -9481,13 +9392,13 @@
         <v>45726</v>
       </c>
       <c r="G124" s="45" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H124" s="33" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I124" s="39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="J124" s="29" t="s">
         <v>66</v>
@@ -9500,8 +9411,8 @@
       <c r="N124" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O124" s="63" t="s">
-        <v>519</v>
+      <c r="O124" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P124" s="29" t="s">
         <v>66</v>
@@ -9512,8 +9423,8 @@
       <c r="R124" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S124" s="64" t="s">
-        <v>521</v>
+      <c r="S124" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T124" s="29"/>
       <c r="U124" s="34"/>
@@ -9542,13 +9453,13 @@
         <v>45726</v>
       </c>
       <c r="G125" s="45" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H125" s="33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I125" s="39" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J125" s="29" t="s">
         <v>66</v>
@@ -9561,8 +9472,8 @@
       <c r="N125" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O125" s="63" t="s">
-        <v>519</v>
+      <c r="O125" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P125" s="29" t="s">
         <v>66</v>
@@ -9573,8 +9484,8 @@
       <c r="R125" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S125" s="64" t="s">
-        <v>521</v>
+      <c r="S125" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T125" s="29"/>
       <c r="U125" s="34"/>
@@ -9603,13 +9514,13 @@
         <v>45726</v>
       </c>
       <c r="G126" s="45" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H126" s="33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I126" s="39" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J126" s="29" t="s">
         <v>66</v>
@@ -9622,8 +9533,8 @@
       <c r="N126" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O126" s="63" t="s">
-        <v>519</v>
+      <c r="O126" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P126" s="29" t="s">
         <v>66</v>
@@ -9634,8 +9545,8 @@
       <c r="R126" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S126" s="64" t="s">
-        <v>521</v>
+      <c r="S126" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T126" s="29"/>
       <c r="U126" s="34"/>
@@ -9664,13 +9575,13 @@
         <v>45726</v>
       </c>
       <c r="G127" s="45" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H127" s="33" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I127" s="39" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J127" s="29" t="s">
         <v>66</v>
@@ -9683,8 +9594,8 @@
       <c r="N127" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O127" s="63" t="s">
-        <v>519</v>
+      <c r="O127" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P127" s="29" t="s">
         <v>66</v>
@@ -9695,8 +9606,8 @@
       <c r="R127" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S127" s="64" t="s">
-        <v>521</v>
+      <c r="S127" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T127" s="29"/>
       <c r="U127" s="34"/>
@@ -9725,13 +9636,13 @@
         <v>45726</v>
       </c>
       <c r="G128" s="45" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H128" s="33" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I128" s="39" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J128" s="29" t="s">
         <v>66</v>
@@ -9744,8 +9655,8 @@
       <c r="N128" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O128" s="63" t="s">
-        <v>519</v>
+      <c r="O128" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P128" s="29" t="s">
         <v>66</v>
@@ -9756,8 +9667,8 @@
       <c r="R128" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S128" s="64" t="s">
-        <v>521</v>
+      <c r="S128" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T128" s="29"/>
       <c r="U128" s="34"/>
@@ -9786,13 +9697,13 @@
         <v>45726</v>
       </c>
       <c r="G129" s="45" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H129" s="33" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I129" s="39" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="J129" s="29" t="s">
         <v>66</v>
@@ -9805,8 +9716,8 @@
       <c r="N129" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O129" s="63" t="s">
-        <v>519</v>
+      <c r="O129" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P129" s="29" t="s">
         <v>66</v>
@@ -9817,8 +9728,8 @@
       <c r="R129" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S129" s="64" t="s">
-        <v>521</v>
+      <c r="S129" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T129" s="29"/>
       <c r="U129" s="34"/>
@@ -9847,13 +9758,13 @@
         <v>45726</v>
       </c>
       <c r="G130" s="45" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H130" s="33" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I130" s="39" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J130" s="29" t="s">
         <v>66</v>
@@ -9866,8 +9777,8 @@
       <c r="N130" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O130" s="63" t="s">
-        <v>519</v>
+      <c r="O130" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P130" s="29" t="s">
         <v>66</v>
@@ -9878,8 +9789,8 @@
       <c r="R130" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S130" s="64" t="s">
-        <v>521</v>
+      <c r="S130" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T130" s="29"/>
       <c r="U130" s="34"/>
@@ -9908,13 +9819,13 @@
         <v>45726</v>
       </c>
       <c r="G131" s="45" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H131" s="33" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I131" s="39" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J131" s="29" t="s">
         <v>66</v>
@@ -9927,8 +9838,8 @@
       <c r="N131" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O131" s="63" t="s">
-        <v>519</v>
+      <c r="O131" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P131" s="29" t="s">
         <v>66</v>
@@ -9939,8 +9850,8 @@
       <c r="R131" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S131" s="64" t="s">
-        <v>521</v>
+      <c r="S131" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T131" s="29"/>
       <c r="U131" s="34"/>
@@ -9949,7 +9860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:23" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" ht="157.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="31">
         <v>169</v>
       </c>
@@ -9969,13 +9880,13 @@
         <v>45726</v>
       </c>
       <c r="G132" s="45" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H132" s="33" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I132" s="39" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J132" s="29" t="s">
         <v>66</v>
@@ -9988,8 +9899,8 @@
       <c r="N132" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O132" s="63" t="s">
-        <v>519</v>
+      <c r="O132" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P132" s="29" t="s">
         <v>66</v>
@@ -10000,8 +9911,8 @@
       <c r="R132" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S132" s="64" t="s">
-        <v>521</v>
+      <c r="S132" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T132" s="29"/>
       <c r="U132" s="34"/>
@@ -10010,7 +9921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" ht="9.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="31">
         <v>175</v>
       </c>
@@ -10026,44 +9937,20 @@
       <c r="E133" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="F133" s="33">
-        <v>45726</v>
-      </c>
-      <c r="G133" s="45" t="s">
-        <v>468</v>
-      </c>
-      <c r="H133" s="33" t="s">
-        <v>469</v>
-      </c>
-      <c r="I133" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="J133" s="29" t="s">
-        <v>66</v>
-      </c>
+      <c r="F133" s="33"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="29"/>
       <c r="K133" s="29"/>
       <c r="L133" s="29"/>
-      <c r="M133" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="N133" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="O133" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="P133" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q133" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="R133" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="S133" s="47" t="s">
-        <v>441</v>
-      </c>
+      <c r="M133" s="29"/>
+      <c r="N133" s="29"/>
+      <c r="O133" s="29"/>
+      <c r="P133" s="29"/>
+      <c r="Q133" s="29"/>
+      <c r="R133" s="29"/>
+      <c r="S133" s="47"/>
       <c r="T133" s="29"/>
       <c r="U133" s="34"/>
       <c r="V133" s="35"/>
@@ -10071,7 +9958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" ht="10.199999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="31">
         <v>177</v>
       </c>
@@ -10108,7 +9995,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="31">
         <v>178</v>
       </c>
@@ -10145,7 +10032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" ht="7.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="31">
         <v>179</v>
       </c>
@@ -10182,7 +10069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" ht="11.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="31">
         <v>180</v>
       </c>
@@ -10219,7 +10106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" ht="11.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="31">
         <v>181</v>
       </c>
@@ -10256,7 +10143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" ht="11.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="31">
         <v>182</v>
       </c>
@@ -10293,7 +10180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" ht="13.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="31">
         <v>183</v>
       </c>
@@ -10330,7 +10217,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="31">
         <v>184</v>
       </c>
@@ -10367,7 +10254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="142" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" ht="11.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="31">
         <v>185</v>
       </c>
@@ -10404,7 +10291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" ht="10.199999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="31">
         <v>186</v>
       </c>
@@ -10441,7 +10328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="144" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="31">
         <v>187</v>
       </c>
@@ -10478,7 +10365,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" ht="11.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="31">
         <v>188</v>
       </c>
@@ -10515,7 +10402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="146" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="31">
         <v>189</v>
       </c>
@@ -10552,7 +10439,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="147" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" ht="13.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="31">
         <v>190</v>
       </c>
@@ -10589,7 +10476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" ht="13.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="31">
         <v>191</v>
       </c>
@@ -10626,7 +10513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" ht="16.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="31">
         <v>376</v>
       </c>
@@ -10663,7 +10550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:23" ht="17.399999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="31">
         <v>417</v>
       </c>
@@ -10700,7 +10587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" ht="14.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="31">
         <v>418</v>
       </c>
@@ -10737,7 +10624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" ht="13.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="31">
         <v>419</v>
       </c>
@@ -10774,7 +10661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:23" ht="13.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="31">
         <v>423</v>
       </c>
@@ -10811,7 +10698,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:23" ht="16.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="31">
         <v>424</v>
       </c>
@@ -10848,7 +10735,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:23" ht="15.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="31">
         <v>425</v>
       </c>
@@ -10885,7 +10772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="156" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:23" ht="16.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="31">
         <v>432</v>
       </c>
@@ -10922,7 +10809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="31">
         <v>433</v>
       </c>
@@ -10996,7 +10883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="159" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" ht="13.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="31">
         <v>435</v>
       </c>
@@ -11033,7 +10920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="160" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" ht="12" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="31">
         <v>437</v>
       </c>
@@ -11070,7 +10957,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:23" ht="16.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="31">
         <v>438</v>
       </c>
@@ -11107,7 +10994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="162" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:23" ht="16.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="31">
         <v>440</v>
       </c>
@@ -11144,7 +11031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="163" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:23" ht="25.2" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="31">
         <v>441</v>
       </c>
@@ -11181,7 +11068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="164" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:23" ht="12.6" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="31">
         <v>442</v>
       </c>
@@ -11218,7 +11105,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="165" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:23" ht="8.4" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="31">
         <v>443</v>
       </c>
@@ -11255,7 +11142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:23" ht="16.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="31">
         <v>444</v>
       </c>
@@ -11292,7 +11179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:23" ht="10.95" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:23" ht="13.8" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="31">
         <v>445</v>
       </c>
@@ -11349,13 +11236,13 @@
         <v>45728</v>
       </c>
       <c r="G168" s="45" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H168" s="33" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="I168" s="39" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J168" s="29" t="s">
         <v>66</v>
@@ -11368,11 +11255,11 @@
       <c r="N168" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O168" s="63"/>
+      <c r="O168" s="29"/>
       <c r="P168" s="29"/>
       <c r="Q168" s="29"/>
       <c r="R168" s="29"/>
-      <c r="S168" s="63"/>
+      <c r="S168" s="29"/>
       <c r="T168" s="29"/>
       <c r="U168" s="34"/>
       <c r="V168" s="35"/>
@@ -11400,13 +11287,13 @@
         <v>45728</v>
       </c>
       <c r="G169" s="45" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H169" s="33" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I169" s="39" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="J169" s="29" t="s">
         <v>66</v>
@@ -11419,11 +11306,11 @@
       <c r="N169" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O169" s="63"/>
+      <c r="O169" s="29"/>
       <c r="P169" s="29"/>
       <c r="Q169" s="29"/>
       <c r="R169" s="29"/>
-      <c r="S169" s="63"/>
+      <c r="S169" s="29"/>
       <c r="T169" s="29"/>
       <c r="U169" s="34"/>
       <c r="V169" s="35"/>
@@ -11451,13 +11338,13 @@
         <v>45726</v>
       </c>
       <c r="G170" s="45" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I170" s="39" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="J170" s="29" t="s">
         <v>66</v>
@@ -11470,11 +11357,11 @@
       <c r="N170" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O170" s="63"/>
+      <c r="O170" s="29"/>
       <c r="P170" s="29"/>
       <c r="Q170" s="29"/>
       <c r="R170" s="29"/>
-      <c r="S170" s="63"/>
+      <c r="S170" s="29"/>
       <c r="T170" s="29"/>
       <c r="U170" s="34"/>
       <c r="V170" s="35"/>
@@ -11502,13 +11389,13 @@
         <v>45728</v>
       </c>
       <c r="G171" s="45" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H171" s="33" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="I171" s="39" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J171" s="29" t="s">
         <v>66</v>
@@ -11521,11 +11408,11 @@
       <c r="N171" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O171" s="63"/>
+      <c r="O171" s="29"/>
       <c r="P171" s="29"/>
       <c r="Q171" s="29"/>
       <c r="R171" s="29"/>
-      <c r="S171" s="63"/>
+      <c r="S171" s="29"/>
       <c r="T171" s="29"/>
       <c r="U171" s="34"/>
       <c r="V171" s="35"/>
@@ -11923,13 +11810,13 @@
         <v>45726</v>
       </c>
       <c r="G182" s="45" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H182" s="33" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I182" s="39" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J182" s="29" t="s">
         <v>66</v>
@@ -11942,8 +11829,8 @@
       <c r="N182" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O182" s="63" t="s">
-        <v>519</v>
+      <c r="O182" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P182" s="29" t="s">
         <v>66</v>
@@ -11954,8 +11841,8 @@
       <c r="R182" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S182" s="64" t="s">
-        <v>521</v>
+      <c r="S182" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T182" s="31"/>
       <c r="U182" s="31"/>
@@ -11984,13 +11871,13 @@
         <v>45728</v>
       </c>
       <c r="G183" s="45" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H183" s="31" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I183" s="29" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="J183" s="29" t="s">
         <v>66</v>
@@ -12003,11 +11890,11 @@
       <c r="N183" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O183" s="63" t="s">
-        <v>519</v>
+      <c r="O183" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P183" s="31" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="Q183" s="29" t="s">
         <v>234</v>
@@ -12015,8 +11902,8 @@
       <c r="R183" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S183" s="64" t="s">
-        <v>521</v>
+      <c r="S183" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T183" s="31"/>
       <c r="U183" s="31"/>
@@ -12051,7 +11938,7 @@
       <c r="M184" s="31"/>
       <c r="N184" s="31"/>
       <c r="O184" s="49" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P184" s="31"/>
       <c r="Q184" s="31"/>
@@ -12232,13 +12119,13 @@
         <v>45726</v>
       </c>
       <c r="G189" s="45" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H189" s="33" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I189" s="39" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J189" s="29" t="s">
         <v>66</v>
@@ -12251,8 +12138,8 @@
       <c r="N189" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="O189" s="63" t="s">
-        <v>519</v>
+      <c r="O189" s="29" t="s">
+        <v>516</v>
       </c>
       <c r="P189" s="29" t="s">
         <v>66</v>
@@ -12263,8 +12150,8 @@
       <c r="R189" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="S189" s="64" t="s">
-        <v>521</v>
+      <c r="S189" s="47" t="s">
+        <v>518</v>
       </c>
       <c r="T189" s="31"/>
       <c r="U189" s="31"/>

--- a/GATEWAY/S1#111#KOGNITIVASRLXX/Kognitiva/MEDGEST/5.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111#KOGNITIVASRLXX/Kognitiva/MEDGEST/5.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/604b941ccb058d18/Desktop/File offline My Cloud/MyCloud/CLIENTI/Palara - BBerry/Kognitiva/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="432" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C18B21A-A215-4E6D-95E7-98E1C54894E3}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AB0B288-0B0D-473C-867F-593E87DF9EC4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -2740,6 +2740,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2761,12 +2767,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3068,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4218,10 +4218,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R31" sqref="R31"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4269,14 +4269,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56" t="s">
         <v>434</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="55"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4297,14 +4297,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="63" t="s">
         <v>435</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="55"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4325,12 +4325,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="63" t="s">
         <v>436</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4352,12 +4352,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="55"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4378,8 +4378,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -5276,7 +5276,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="31">
         <v>47</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="H30" s="33"/>
       <c r="I30" s="39"/>
       <c r="J30" s="29" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="29"/>
@@ -5352,7 +5352,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="39"/>
       <c r="J31" s="29" t="s">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="29"/>
@@ -5411,11 +5411,11 @@
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
-      <c r="O32" s="63"/>
+      <c r="O32" s="51"/>
       <c r="P32" s="29"/>
       <c r="Q32" s="29"/>
       <c r="R32" s="29"/>
-      <c r="S32" s="62"/>
+      <c r="S32" s="50"/>
       <c r="T32" s="29"/>
       <c r="U32" s="34" t="s">
         <v>66</v>
@@ -5450,11 +5450,11 @@
       <c r="L33" s="29"/>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
-      <c r="O33" s="63"/>
+      <c r="O33" s="51"/>
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
       <c r="R33" s="29"/>
-      <c r="S33" s="62"/>
+      <c r="S33" s="50"/>
       <c r="T33" s="29"/>
       <c r="U33" s="34" t="s">
         <v>66</v>
@@ -5489,11 +5489,11 @@
       <c r="L34" s="29"/>
       <c r="M34" s="29"/>
       <c r="N34" s="29"/>
-      <c r="O34" s="63"/>
+      <c r="O34" s="51"/>
       <c r="P34" s="29"/>
       <c r="Q34" s="29"/>
       <c r="R34" s="29"/>
-      <c r="S34" s="62"/>
+      <c r="S34" s="50"/>
       <c r="T34" s="29"/>
       <c r="U34" s="34" t="s">
         <v>66</v>
@@ -5528,11 +5528,11 @@
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
       <c r="N35" s="29"/>
-      <c r="O35" s="63"/>
+      <c r="O35" s="51"/>
       <c r="P35" s="29"/>
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
-      <c r="S35" s="62"/>
+      <c r="S35" s="50"/>
       <c r="T35" s="29"/>
       <c r="U35" s="34"/>
       <c r="V35" s="35"/>
@@ -5565,11 +5565,11 @@
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
       <c r="N36" s="29"/>
-      <c r="O36" s="63"/>
+      <c r="O36" s="51"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
-      <c r="S36" s="62"/>
+      <c r="S36" s="50"/>
       <c r="T36" s="29"/>
       <c r="U36" s="34"/>
       <c r="V36" s="35"/>
@@ -5602,11 +5602,11 @@
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
-      <c r="O37" s="63"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
       <c r="R37" s="29"/>
-      <c r="S37" s="62"/>
+      <c r="S37" s="50"/>
       <c r="T37" s="29"/>
       <c r="U37" s="34"/>
       <c r="V37" s="35"/>
@@ -5639,11 +5639,11 @@
       <c r="L38" s="29"/>
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
-      <c r="O38" s="63"/>
+      <c r="O38" s="51"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
       <c r="R38" s="29"/>
-      <c r="S38" s="62"/>
+      <c r="S38" s="50"/>
       <c r="T38" s="29"/>
       <c r="U38" s="34"/>
       <c r="V38" s="35"/>
@@ -5676,11 +5676,11 @@
       <c r="L39" s="29"/>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
-      <c r="O39" s="63"/>
+      <c r="O39" s="51"/>
       <c r="P39" s="29"/>
       <c r="Q39" s="29"/>
       <c r="R39" s="29"/>
-      <c r="S39" s="62"/>
+      <c r="S39" s="50"/>
       <c r="T39" s="29"/>
       <c r="U39" s="34"/>
       <c r="V39" s="35"/>
@@ -5713,11 +5713,11 @@
       <c r="L40" s="29"/>
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
-      <c r="O40" s="63"/>
+      <c r="O40" s="51"/>
       <c r="P40" s="29"/>
       <c r="Q40" s="29"/>
       <c r="R40" s="29"/>
-      <c r="S40" s="62"/>
+      <c r="S40" s="50"/>
       <c r="T40" s="29"/>
       <c r="U40" s="34"/>
       <c r="V40" s="35"/>
@@ -5750,11 +5750,11 @@
       <c r="L41" s="29"/>
       <c r="M41" s="29"/>
       <c r="N41" s="29"/>
-      <c r="O41" s="63"/>
+      <c r="O41" s="51"/>
       <c r="P41" s="29"/>
       <c r="Q41" s="29"/>
       <c r="R41" s="29"/>
-      <c r="S41" s="62"/>
+      <c r="S41" s="50"/>
       <c r="T41" s="29"/>
       <c r="U41" s="34"/>
       <c r="V41" s="35"/>
@@ -5787,11 +5787,11 @@
       <c r="L42" s="29"/>
       <c r="M42" s="29"/>
       <c r="N42" s="29"/>
-      <c r="O42" s="63"/>
+      <c r="O42" s="51"/>
       <c r="P42" s="29"/>
       <c r="Q42" s="29"/>
       <c r="R42" s="29"/>
-      <c r="S42" s="62"/>
+      <c r="S42" s="50"/>
       <c r="T42" s="29"/>
       <c r="U42" s="34"/>
       <c r="V42" s="35"/>
@@ -5824,11 +5824,11 @@
       <c r="L43" s="29"/>
       <c r="M43" s="29"/>
       <c r="N43" s="29"/>
-      <c r="O43" s="63"/>
+      <c r="O43" s="51"/>
       <c r="P43" s="29"/>
       <c r="Q43" s="29"/>
       <c r="R43" s="29"/>
-      <c r="S43" s="62"/>
+      <c r="S43" s="50"/>
       <c r="T43" s="29"/>
       <c r="U43" s="34"/>
       <c r="V43" s="35"/>
@@ -5861,11 +5861,11 @@
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
       <c r="N44" s="29"/>
-      <c r="O44" s="63"/>
+      <c r="O44" s="51"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
-      <c r="S44" s="62"/>
+      <c r="S44" s="50"/>
       <c r="T44" s="29"/>
       <c r="U44" s="34"/>
       <c r="V44" s="35"/>
@@ -5898,11 +5898,11 @@
       <c r="L45" s="29"/>
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
-      <c r="O45" s="63"/>
+      <c r="O45" s="51"/>
       <c r="P45" s="29"/>
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
-      <c r="S45" s="62"/>
+      <c r="S45" s="50"/>
       <c r="T45" s="29"/>
       <c r="U45" s="34"/>
       <c r="V45" s="35"/>
@@ -5935,11 +5935,11 @@
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
       <c r="N46" s="29"/>
-      <c r="O46" s="63"/>
+      <c r="O46" s="51"/>
       <c r="P46" s="29"/>
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
-      <c r="S46" s="62"/>
+      <c r="S46" s="50"/>
       <c r="T46" s="29"/>
       <c r="U46" s="34"/>
       <c r="V46" s="35"/>
@@ -5972,11 +5972,11 @@
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
       <c r="N47" s="29"/>
-      <c r="O47" s="63"/>
+      <c r="O47" s="51"/>
       <c r="P47" s="29"/>
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
-      <c r="S47" s="62"/>
+      <c r="S47" s="50"/>
       <c r="T47" s="29"/>
       <c r="U47" s="34"/>
       <c r="V47" s="35"/>
@@ -6009,11 +6009,11 @@
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
-      <c r="O48" s="63"/>
+      <c r="O48" s="51"/>
       <c r="P48" s="29"/>
       <c r="Q48" s="29"/>
       <c r="R48" s="29"/>
-      <c r="S48" s="62"/>
+      <c r="S48" s="50"/>
       <c r="T48" s="29"/>
       <c r="U48" s="34"/>
       <c r="V48" s="35"/>
@@ -6046,11 +6046,11 @@
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
       <c r="N49" s="29"/>
-      <c r="O49" s="63"/>
+      <c r="O49" s="51"/>
       <c r="P49" s="29"/>
       <c r="Q49" s="29"/>
       <c r="R49" s="29"/>
-      <c r="S49" s="62"/>
+      <c r="S49" s="50"/>
       <c r="T49" s="29"/>
       <c r="U49" s="34"/>
       <c r="V49" s="35"/>
@@ -6083,11 +6083,11 @@
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
       <c r="N50" s="29"/>
-      <c r="O50" s="63"/>
+      <c r="O50" s="51"/>
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
       <c r="R50" s="29"/>
-      <c r="S50" s="62"/>
+      <c r="S50" s="50"/>
       <c r="T50" s="29"/>
       <c r="U50" s="34"/>
       <c r="V50" s="35"/>
@@ -6120,11 +6120,11 @@
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
-      <c r="O51" s="63"/>
+      <c r="O51" s="51"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
       <c r="R51" s="29"/>
-      <c r="S51" s="62"/>
+      <c r="S51" s="50"/>
       <c r="T51" s="29"/>
       <c r="U51" s="34"/>
       <c r="V51" s="35"/>
@@ -6157,11 +6157,11 @@
       <c r="L52" s="29"/>
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
-      <c r="O52" s="63"/>
+      <c r="O52" s="51"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
       <c r="R52" s="29"/>
-      <c r="S52" s="62"/>
+      <c r="S52" s="50"/>
       <c r="T52" s="29"/>
       <c r="U52" s="34"/>
       <c r="V52" s="35"/>
@@ -18642,15 +18642,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18912,27 +18909,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18957,9 +18948,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111#KOGNITIVASRLXX/Kognitiva/MEDGEST/5.0/report-checklist.xlsx
+++ b/GATEWAY/S1#111#KOGNITIVASRLXX/Kognitiva/MEDGEST/5.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/604b941ccb058d18/Desktop/File offline My Cloud/MyCloud/CLIENTI/Palara - BBerry/Kognitiva/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AB0B288-0B0D-473C-867F-593E87DF9EC4}"/>
+  <xr:revisionPtr revIDLastSave="453" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7FE4A53-27C0-4A72-BC9D-14EB6B82A299}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1805,12 +1805,6 @@
     <t>2.16.840.1.113883.2.9.2.60.4.4.4f067815b4aaf2e4476fe556397936275dbf5bfc01a0cd59d680697e6069d171.c67af77ede^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>bfea136b44bb3803</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.60.4.4.e879986166ec2b611e9360ffc77898adb78bc949260a8abc7c2a17e940b041aa.c661e25d72^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>10dffae938c20496</t>
   </si>
   <si>
@@ -1823,12 +1817,6 @@
     <t>2.16.840.1.113883.2.9.2.60.4.4.5adfbadc4e8961d201a5cfa8883b34c69828e30308a8f0ae0e3b72abc7921148.950ee632c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>522e6abff718a2ca</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.60.4.4.a7fe81738fe6bbca39839245359df23e67c1e94a60550ae64818ca9d3f76d93f.e80a3c3e9e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>9ce0173167a5f570</t>
   </si>
   <si>
@@ -1937,12 +1925,6 @@
     <t>2.16.840.1.113883.2.9.2.60.4.4.63f78f17f80fca840c9970f8facf971e5637d1014927a41635bea1d76b07d515.9ca42202ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>b33e93981c588b66</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.60.4.4.d502fb7e45f2185ea9c25bb6e5bd249aea3ff04589a99e25f83860120ea1848a.1799051d22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>95f9f738966b4b22</t>
   </si>
   <si>
@@ -2063,15 +2045,6 @@
     <t>2025-03-12T17:03:39Z</t>
   </si>
   <si>
-    <t>2025-03-12T17:07:54Z</t>
-  </si>
-  <si>
-    <t>2025-03-10T16:17:46Z</t>
-  </si>
-  <si>
-    <t>2025-03-12T15:18:40Z</t>
-  </si>
-  <si>
     <t>2025-03-10T14:46:39Z</t>
   </si>
   <si>
@@ -2085,6 +2058,33 @@
   </si>
   <si>
     <t>In caso di timeout viene ritentato l'invio ogni 10 minuti grazie all'accodamento automatico della richiesta</t>
+  </si>
+  <si>
+    <t>da4114172842963f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.60.4.4.fc34b6c963ff6935336310ba205f644761c39b2484f08357afbd82d433da89e0.a09f982bc8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-25T08:16:56Z</t>
+  </si>
+  <si>
+    <t>2025-03-25T08:32:04Z</t>
+  </si>
+  <si>
+    <t>e2b58b9168e7fd7a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.60.4.4.c9bd8df7ff7fa0613170c5a8b0219e21e49e46b4d3e5918e0538cda171779f65.778ab3c465^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-25T10:52:44Z</t>
+  </si>
+  <si>
+    <t>770aab610414a537</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.60.4.4.d9ed4cbc5a7f0ff93401b7026df00dc5ef44510da4ff32f4faa6d291cf9a3e8d.2b7b098f62^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4218,10 +4218,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E132" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5308,7 +5308,7 @@
         <v>66</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="P30" s="29" t="s">
         <v>234</v>
@@ -5320,7 +5320,7 @@
         <v>234</v>
       </c>
       <c r="S30" s="29" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="T30" s="29"/>
       <c r="U30" s="34" t="s">
@@ -5363,7 +5363,7 @@
         <v>66</v>
       </c>
       <c r="O31" s="29" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="P31" s="29" t="s">
         <v>234</v>
@@ -5375,7 +5375,7 @@
         <v>234</v>
       </c>
       <c r="S31" s="29" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="T31" s="29"/>
       <c r="U31" s="34" t="s">
@@ -6189,13 +6189,13 @@
         <v>45728</v>
       </c>
       <c r="G53" s="45" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I53" s="39" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J53" s="29" t="s">
         <v>66</v>
@@ -6209,7 +6209,7 @@
         <v>66</v>
       </c>
       <c r="O53" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P53" s="29" t="s">
         <v>66</v>
@@ -6221,7 +6221,7 @@
         <v>66</v>
       </c>
       <c r="S53" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T53" s="29"/>
       <c r="U53" s="34"/>
@@ -6250,13 +6250,13 @@
         <v>45728</v>
       </c>
       <c r="G54" s="45" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H54" s="33" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I54" s="39" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J54" s="29" t="s">
         <v>66</v>
@@ -6270,7 +6270,7 @@
         <v>66</v>
       </c>
       <c r="O54" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P54" s="29" t="s">
         <v>66</v>
@@ -6282,7 +6282,7 @@
         <v>66</v>
       </c>
       <c r="S54" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T54" s="29"/>
       <c r="U54" s="34"/>
@@ -6311,13 +6311,13 @@
         <v>45728</v>
       </c>
       <c r="G55" s="45" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H55" s="33" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="I55" s="39" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>66</v>
@@ -6331,7 +6331,7 @@
         <v>66</v>
       </c>
       <c r="O55" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P55" s="29" t="s">
         <v>66</v>
@@ -6343,7 +6343,7 @@
         <v>66</v>
       </c>
       <c r="S55" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T55" s="29"/>
       <c r="U55" s="34"/>
@@ -6372,13 +6372,13 @@
         <v>45728</v>
       </c>
       <c r="G56" s="45" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H56" s="33" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="I56" s="39" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J56" s="29" t="s">
         <v>66</v>
@@ -6392,7 +6392,7 @@
         <v>66</v>
       </c>
       <c r="O56" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P56" s="29" t="s">
         <v>66</v>
@@ -6404,7 +6404,7 @@
         <v>66</v>
       </c>
       <c r="S56" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T56" s="29"/>
       <c r="U56" s="34"/>
@@ -6433,13 +6433,13 @@
         <v>45728</v>
       </c>
       <c r="G57" s="45" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="H57" s="33" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I57" s="39" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J57" s="29" t="s">
         <v>66</v>
@@ -6453,7 +6453,7 @@
         <v>66</v>
       </c>
       <c r="O57" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P57" s="29" t="s">
         <v>66</v>
@@ -6465,7 +6465,7 @@
         <v>66</v>
       </c>
       <c r="S57" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T57" s="29"/>
       <c r="U57" s="34"/>
@@ -6494,13 +6494,13 @@
         <v>45728</v>
       </c>
       <c r="G58" s="45" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="I58" s="39" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J58" s="29" t="s">
         <v>66</v>
@@ -6514,7 +6514,7 @@
         <v>66</v>
       </c>
       <c r="O58" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P58" s="29" t="s">
         <v>66</v>
@@ -6526,7 +6526,7 @@
         <v>66</v>
       </c>
       <c r="S58" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T58" s="29"/>
       <c r="U58" s="34"/>
@@ -6555,13 +6555,13 @@
         <v>45728</v>
       </c>
       <c r="G59" s="45" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H59" s="33" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I59" s="39" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J59" s="29" t="s">
         <v>66</v>
@@ -6575,7 +6575,7 @@
         <v>66</v>
       </c>
       <c r="O59" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P59" s="29" t="s">
         <v>66</v>
@@ -6587,7 +6587,7 @@
         <v>66</v>
       </c>
       <c r="S59" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T59" s="29"/>
       <c r="U59" s="34"/>
@@ -6616,13 +6616,13 @@
         <v>45728</v>
       </c>
       <c r="G60" s="45" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I60" s="39" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J60" s="29" t="s">
         <v>66</v>
@@ -6636,7 +6636,7 @@
         <v>66</v>
       </c>
       <c r="O60" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P60" s="29" t="s">
         <v>66</v>
@@ -6648,7 +6648,7 @@
         <v>66</v>
       </c>
       <c r="S60" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T60" s="29"/>
       <c r="U60" s="34"/>
@@ -6677,13 +6677,13 @@
         <v>45728</v>
       </c>
       <c r="G61" s="45" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J61" s="29" t="s">
         <v>66</v>
@@ -6697,7 +6697,7 @@
         <v>66</v>
       </c>
       <c r="O61" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P61" s="29" t="s">
         <v>66</v>
@@ -6709,7 +6709,7 @@
         <v>66</v>
       </c>
       <c r="S61" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T61" s="29"/>
       <c r="U61" s="34"/>
@@ -6738,13 +6738,13 @@
         <v>45728</v>
       </c>
       <c r="G62" s="45" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H62" s="33" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="I62" s="39" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J62" s="29" t="s">
         <v>66</v>
@@ -6758,7 +6758,7 @@
         <v>66</v>
       </c>
       <c r="O62" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P62" s="29" t="s">
         <v>66</v>
@@ -6770,7 +6770,7 @@
         <v>66</v>
       </c>
       <c r="S62" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T62" s="29"/>
       <c r="U62" s="34"/>
@@ -6799,13 +6799,13 @@
         <v>45728</v>
       </c>
       <c r="G63" s="45" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="I63" s="39" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J63" s="29" t="s">
         <v>66</v>
@@ -6819,7 +6819,7 @@
         <v>66</v>
       </c>
       <c r="O63" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P63" s="29" t="s">
         <v>66</v>
@@ -6831,7 +6831,7 @@
         <v>66</v>
       </c>
       <c r="S63" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T63" s="29"/>
       <c r="U63" s="34"/>
@@ -6860,13 +6860,13 @@
         <v>45728</v>
       </c>
       <c r="G64" s="45" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H64" s="33" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="I64" s="39" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J64" s="29" t="s">
         <v>66</v>
@@ -6880,7 +6880,7 @@
         <v>66</v>
       </c>
       <c r="O64" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P64" s="29" t="s">
         <v>66</v>
@@ -6892,7 +6892,7 @@
         <v>66</v>
       </c>
       <c r="S64" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T64" s="29"/>
       <c r="U64" s="34"/>
@@ -6921,13 +6921,13 @@
         <v>45728</v>
       </c>
       <c r="G65" s="45" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="H65" s="33" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I65" s="39" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J65" s="29" t="s">
         <v>66</v>
@@ -6941,7 +6941,7 @@
         <v>66</v>
       </c>
       <c r="O65" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P65" s="29" t="s">
         <v>66</v>
@@ -6953,7 +6953,7 @@
         <v>66</v>
       </c>
       <c r="S65" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T65" s="29"/>
       <c r="U65" s="34"/>
@@ -6982,13 +6982,13 @@
         <v>45728</v>
       </c>
       <c r="G66" s="45" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I66" s="39" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>66</v>
@@ -7002,7 +7002,7 @@
         <v>66</v>
       </c>
       <c r="O66" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P66" s="29" t="s">
         <v>66</v>
@@ -7014,7 +7014,7 @@
         <v>66</v>
       </c>
       <c r="S66" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T66" s="29"/>
       <c r="U66" s="34"/>
@@ -7043,13 +7043,13 @@
         <v>45728</v>
       </c>
       <c r="G67" s="45" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="I67" s="39" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J67" s="29" t="s">
         <v>66</v>
@@ -7063,7 +7063,7 @@
         <v>66</v>
       </c>
       <c r="O67" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P67" s="29" t="s">
         <v>66</v>
@@ -7075,7 +7075,7 @@
         <v>66</v>
       </c>
       <c r="S67" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T67" s="29"/>
       <c r="U67" s="34"/>
@@ -7104,13 +7104,13 @@
         <v>45728</v>
       </c>
       <c r="G68" s="45" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H68" s="33" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I68" s="39" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J68" s="29" t="s">
         <v>66</v>
@@ -7124,7 +7124,7 @@
         <v>66</v>
       </c>
       <c r="O68" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P68" s="29" t="s">
         <v>66</v>
@@ -7136,7 +7136,7 @@
         <v>66</v>
       </c>
       <c r="S68" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T68" s="29"/>
       <c r="U68" s="34"/>
@@ -7165,13 +7165,13 @@
         <v>45728</v>
       </c>
       <c r="G69" s="45" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I69" s="39" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J69" s="29" t="s">
         <v>66</v>
@@ -7185,7 +7185,7 @@
         <v>66</v>
       </c>
       <c r="O69" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P69" s="29" t="s">
         <v>66</v>
@@ -7197,7 +7197,7 @@
         <v>66</v>
       </c>
       <c r="S69" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T69" s="29"/>
       <c r="U69" s="34"/>
@@ -8965,7 +8965,7 @@
         <v>45726</v>
       </c>
       <c r="G117" s="45" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H117" s="33" t="s">
         <v>438</v>
@@ -8985,7 +8985,7 @@
         <v>66</v>
       </c>
       <c r="O117" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P117" s="29" t="s">
         <v>66</v>
@@ -8997,7 +8997,7 @@
         <v>66</v>
       </c>
       <c r="S117" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T117" s="29"/>
       <c r="U117" s="34"/>
@@ -9026,7 +9026,7 @@
         <v>45726</v>
       </c>
       <c r="G118" s="45" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="H118" s="33" t="s">
         <v>440</v>
@@ -9046,7 +9046,7 @@
         <v>66</v>
       </c>
       <c r="O118" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P118" s="29" t="s">
         <v>66</v>
@@ -9058,7 +9058,7 @@
         <v>66</v>
       </c>
       <c r="S118" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T118" s="29"/>
       <c r="U118" s="34"/>
@@ -9087,7 +9087,7 @@
         <v>45726</v>
       </c>
       <c r="G119" s="45" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H119" s="33" t="s">
         <v>442</v>
@@ -9107,7 +9107,7 @@
         <v>66</v>
       </c>
       <c r="O119" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P119" s="29" t="s">
         <v>66</v>
@@ -9119,7 +9119,7 @@
         <v>66</v>
       </c>
       <c r="S119" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T119" s="29"/>
       <c r="U119" s="34"/>
@@ -9148,7 +9148,7 @@
         <v>45726</v>
       </c>
       <c r="G120" s="45" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H120" s="33" t="s">
         <v>444</v>
@@ -9168,7 +9168,7 @@
         <v>66</v>
       </c>
       <c r="O120" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P120" s="29" t="s">
         <v>66</v>
@@ -9180,7 +9180,7 @@
         <v>66</v>
       </c>
       <c r="S120" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T120" s="29"/>
       <c r="U120" s="34"/>
@@ -9209,7 +9209,7 @@
         <v>45726</v>
       </c>
       <c r="G121" s="45" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H121" s="33" t="s">
         <v>446</v>
@@ -9229,7 +9229,7 @@
         <v>66</v>
       </c>
       <c r="O121" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P121" s="29" t="s">
         <v>66</v>
@@ -9241,7 +9241,7 @@
         <v>66</v>
       </c>
       <c r="S121" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T121" s="29"/>
       <c r="U121" s="34"/>
@@ -9270,7 +9270,7 @@
         <v>45726</v>
       </c>
       <c r="G122" s="45" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H122" s="33" t="s">
         <v>448</v>
@@ -9290,7 +9290,7 @@
         <v>66</v>
       </c>
       <c r="O122" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P122" s="29" t="s">
         <v>66</v>
@@ -9302,7 +9302,7 @@
         <v>66</v>
       </c>
       <c r="S122" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T122" s="29"/>
       <c r="U122" s="34"/>
@@ -9331,7 +9331,7 @@
         <v>45726</v>
       </c>
       <c r="G123" s="45" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H123" s="33" t="s">
         <v>450</v>
@@ -9351,7 +9351,7 @@
         <v>66</v>
       </c>
       <c r="O123" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P123" s="29" t="s">
         <v>66</v>
@@ -9363,7 +9363,7 @@
         <v>66</v>
       </c>
       <c r="S123" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T123" s="29"/>
       <c r="U123" s="34"/>
@@ -9392,7 +9392,7 @@
         <v>45726</v>
       </c>
       <c r="G124" s="45" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="H124" s="33" t="s">
         <v>452</v>
@@ -9412,7 +9412,7 @@
         <v>66</v>
       </c>
       <c r="O124" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P124" s="29" t="s">
         <v>66</v>
@@ -9424,7 +9424,7 @@
         <v>66</v>
       </c>
       <c r="S124" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T124" s="29"/>
       <c r="U124" s="34"/>
@@ -9453,7 +9453,7 @@
         <v>45726</v>
       </c>
       <c r="G125" s="45" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H125" s="33" t="s">
         <v>454</v>
@@ -9473,7 +9473,7 @@
         <v>66</v>
       </c>
       <c r="O125" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P125" s="29" t="s">
         <v>66</v>
@@ -9485,7 +9485,7 @@
         <v>66</v>
       </c>
       <c r="S125" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T125" s="29"/>
       <c r="U125" s="34"/>
@@ -9514,7 +9514,7 @@
         <v>45726</v>
       </c>
       <c r="G126" s="45" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="H126" s="33" t="s">
         <v>456</v>
@@ -9534,7 +9534,7 @@
         <v>66</v>
       </c>
       <c r="O126" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P126" s="29" t="s">
         <v>66</v>
@@ -9546,7 +9546,7 @@
         <v>66</v>
       </c>
       <c r="S126" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T126" s="29"/>
       <c r="U126" s="34"/>
@@ -9575,7 +9575,7 @@
         <v>45726</v>
       </c>
       <c r="G127" s="45" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H127" s="33" t="s">
         <v>458</v>
@@ -9595,7 +9595,7 @@
         <v>66</v>
       </c>
       <c r="O127" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P127" s="29" t="s">
         <v>66</v>
@@ -9607,7 +9607,7 @@
         <v>66</v>
       </c>
       <c r="S127" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T127" s="29"/>
       <c r="U127" s="34"/>
@@ -9636,7 +9636,7 @@
         <v>45726</v>
       </c>
       <c r="G128" s="45" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="H128" s="33" t="s">
         <v>460</v>
@@ -9656,7 +9656,7 @@
         <v>66</v>
       </c>
       <c r="O128" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P128" s="29" t="s">
         <v>66</v>
@@ -9668,7 +9668,7 @@
         <v>66</v>
       </c>
       <c r="S128" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T128" s="29"/>
       <c r="U128" s="34"/>
@@ -9697,13 +9697,13 @@
         <v>45726</v>
       </c>
       <c r="G129" s="45" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H129" s="33" t="s">
         <v>462</v>
       </c>
       <c r="I129" s="39" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="J129" s="29" t="s">
         <v>66</v>
@@ -9717,7 +9717,7 @@
         <v>66</v>
       </c>
       <c r="O129" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P129" s="29" t="s">
         <v>66</v>
@@ -9729,7 +9729,7 @@
         <v>66</v>
       </c>
       <c r="S129" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T129" s="29"/>
       <c r="U129" s="34"/>
@@ -9758,13 +9758,13 @@
         <v>45726</v>
       </c>
       <c r="G130" s="45" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="H130" s="33" t="s">
         <v>463</v>
       </c>
       <c r="I130" s="39" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="J130" s="29" t="s">
         <v>66</v>
@@ -9778,7 +9778,7 @@
         <v>66</v>
       </c>
       <c r="O130" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P130" s="29" t="s">
         <v>66</v>
@@ -9790,7 +9790,7 @@
         <v>66</v>
       </c>
       <c r="S130" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T130" s="29"/>
       <c r="U130" s="34"/>
@@ -9819,7 +9819,7 @@
         <v>45726</v>
       </c>
       <c r="G131" s="45" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H131" s="33" t="s">
         <v>464</v>
@@ -9839,7 +9839,7 @@
         <v>66</v>
       </c>
       <c r="O131" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P131" s="29" t="s">
         <v>66</v>
@@ -9851,7 +9851,7 @@
         <v>66</v>
       </c>
       <c r="S131" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T131" s="29"/>
       <c r="U131" s="34"/>
@@ -9880,7 +9880,7 @@
         <v>45726</v>
       </c>
       <c r="G132" s="45" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="H132" s="33" t="s">
         <v>466</v>
@@ -9900,7 +9900,7 @@
         <v>66</v>
       </c>
       <c r="O132" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P132" s="29" t="s">
         <v>66</v>
@@ -9912,7 +9912,7 @@
         <v>66</v>
       </c>
       <c r="S132" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T132" s="29"/>
       <c r="U132" s="34"/>
@@ -11236,13 +11236,13 @@
         <v>45728</v>
       </c>
       <c r="G168" s="45" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H168" s="33" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I168" s="39" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J168" s="29" t="s">
         <v>66</v>
@@ -11284,16 +11284,16 @@
         <v>286</v>
       </c>
       <c r="F169" s="33">
-        <v>45728</v>
+        <v>45741</v>
       </c>
       <c r="G169" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="H169" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="I169" s="39" t="s">
         <v>554</v>
-      </c>
-      <c r="H169" s="33" t="s">
-        <v>512</v>
-      </c>
-      <c r="I169" s="39" t="s">
-        <v>513</v>
       </c>
       <c r="J169" s="29" t="s">
         <v>66</v>
@@ -11335,16 +11335,16 @@
         <v>399</v>
       </c>
       <c r="F170" s="33">
-        <v>45726</v>
+        <v>45741</v>
       </c>
       <c r="G170" s="45" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H170" s="33" t="s">
-        <v>468</v>
+        <v>560</v>
       </c>
       <c r="I170" s="39" t="s">
-        <v>469</v>
+        <v>561</v>
       </c>
       <c r="J170" s="29" t="s">
         <v>66</v>
@@ -11369,7 +11369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:23" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="31">
         <v>449</v>
       </c>
@@ -11386,16 +11386,16 @@
         <v>400</v>
       </c>
       <c r="F171" s="33">
-        <v>45728</v>
+        <v>45741</v>
       </c>
       <c r="G171" s="45" t="s">
         <v>556</v>
       </c>
       <c r="H171" s="33" t="s">
-        <v>474</v>
+        <v>557</v>
       </c>
       <c r="I171" s="39" t="s">
-        <v>475</v>
+        <v>558</v>
       </c>
       <c r="J171" s="29" t="s">
         <v>66</v>
@@ -11810,13 +11810,13 @@
         <v>45726</v>
       </c>
       <c r="G182" s="45" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="H182" s="33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="I182" s="39" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="J182" s="29" t="s">
         <v>66</v>
@@ -11830,7 +11830,7 @@
         <v>66</v>
       </c>
       <c r="O182" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P182" s="29" t="s">
         <v>66</v>
@@ -11842,7 +11842,7 @@
         <v>66</v>
       </c>
       <c r="S182" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T182" s="31"/>
       <c r="U182" s="31"/>
@@ -11871,13 +11871,13 @@
         <v>45728</v>
       </c>
       <c r="G183" s="45" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="H183" s="31" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="I183" s="29" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="J183" s="29" t="s">
         <v>66</v>
@@ -11891,10 +11891,10 @@
         <v>66</v>
       </c>
       <c r="O183" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P183" s="31" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="Q183" s="29" t="s">
         <v>234</v>
@@ -11903,7 +11903,7 @@
         <v>66</v>
       </c>
       <c r="S183" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T183" s="31"/>
       <c r="U183" s="31"/>
@@ -11938,7 +11938,7 @@
       <c r="M184" s="31"/>
       <c r="N184" s="31"/>
       <c r="O184" s="49" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P184" s="31"/>
       <c r="Q184" s="31"/>
@@ -12119,13 +12119,13 @@
         <v>45726</v>
       </c>
       <c r="G189" s="45" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="H189" s="33" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I189" s="39" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J189" s="29" t="s">
         <v>66</v>
@@ -12139,7 +12139,7 @@
         <v>66</v>
       </c>
       <c r="O189" s="29" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="P189" s="29" t="s">
         <v>66</v>
@@ -12151,7 +12151,7 @@
         <v>66</v>
       </c>
       <c r="S189" s="47" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="T189" s="31"/>
       <c r="U189" s="31"/>
